--- a/work/维系体系展现-v1(1).xlsx
+++ b/work/维系体系展现-v1(1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="需求字段" sheetId="1" r:id="rId1"/>
@@ -1893,34 +1893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1934,6 +1907,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2380,7 +2380,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="56" t="s">
         <v>97</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2392,221 +2392,221 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="53"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="45" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="53"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="51"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="53"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="51"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="53"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="51"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="54"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="51"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="50" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="45" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="50"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="51"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="50"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="51"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="51" t="s">
         <v>64</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="53" t="s">
         <v>66</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="46"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="48"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="46"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="48"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="46"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="48"/>
+      <c r="D16" s="54"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="46"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="48"/>
+      <c r="D17" s="54"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="46"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="48"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="46"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="48"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="46"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="48"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="46"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="48"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="50" t="s">
         <v>80</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -2618,167 +2618,167 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A23" s="49"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="45" t="s">
         <v>100</v>
       </c>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="49"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="51"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="45"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="49"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="51"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="49"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="51"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="49"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="51"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="45"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="49"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="58"/>
-      <c r="E28" s="51"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="49"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="51"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="49"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="51"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="45"/>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="49"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="51"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="49"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="51"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="49"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="51"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="45"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="49"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="51"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="45"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="49"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="58"/>
-      <c r="E35" s="51"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="45"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="45" t="s">
         <v>127</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2787,110 +2787,110 @@
       <c r="C36" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="55" t="s">
+      <c r="D36" s="46" t="s">
         <v>141</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="51"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="56"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="51"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D38" s="56"/>
+      <c r="D38" s="47"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="51"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="56"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A40" s="51"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="56"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="51"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D41" s="56"/>
+      <c r="D41" s="47"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="51"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D42" s="56"/>
+      <c r="D42" s="47"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="51"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="56"/>
+      <c r="D43" s="47"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="51"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="56"/>
+      <c r="D44" s="47"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="45" t="s">
         <v>139</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -2899,103 +2899,103 @@
       <c r="C45" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D45" s="56"/>
+      <c r="D45" s="47"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="51"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D46" s="56"/>
+      <c r="D46" s="47"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="51"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="56"/>
+      <c r="D47" s="47"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="51"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D48" s="56"/>
+      <c r="D48" s="47"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="51"/>
+      <c r="A49" s="45"/>
       <c r="B49" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D49" s="56"/>
+      <c r="D49" s="47"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="51"/>
+      <c r="A50" s="45"/>
       <c r="B50" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D50" s="56"/>
+      <c r="D50" s="47"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="51"/>
+      <c r="A51" s="45"/>
       <c r="B51" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D51" s="56"/>
+      <c r="D51" s="47"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="51"/>
+      <c r="A52" s="45"/>
       <c r="B52" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D52" s="56"/>
+      <c r="D52" s="47"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="51"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D53" s="57"/>
+      <c r="D53" s="48"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
@@ -3013,18 +3013,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="A36:A44"/>
     <mergeCell ref="A45:A53"/>
     <mergeCell ref="D36:D53"/>
     <mergeCell ref="D23:D35"/>
     <mergeCell ref="E23:E35"/>
     <mergeCell ref="A22:A35"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="D13:D21"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3036,8 +3036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T911"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3135,7 +3135,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="49" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -3153,10 +3153,10 @@
       <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="58"/>
+      <c r="H4" s="49"/>
       <c r="M4" s="41" t="s">
         <v>202</v>
       </c>
@@ -3180,7 +3180,7 @@
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="58"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="3" t="s">
         <v>50</v>
       </c>
@@ -18868,28 +18868,28 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="45" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="58"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
@@ -19043,8 +19043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19320,18 +19320,18 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="58" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="58"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="71" t="s">
         <v>182</v>
       </c>
@@ -19348,12 +19348,12 @@
       <c r="P2" s="68"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="58"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
       <c r="G3" s="73"/>
       <c r="H3" s="74"/>
       <c r="I3" s="66" t="s">
@@ -19374,7 +19374,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="27">
-      <c r="A4" s="58"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="29" t="s">
         <v>163</v>
       </c>
@@ -19990,18 +19990,18 @@
       <c r="R2" s="75"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45" t="s">
         <v>159</v>
       </c>
       <c r="G3" s="76" t="s">
@@ -20020,34 +20020,34 @@
       <c r="R3" s="76"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="58"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="76" t="s">
         <v>161</v>
       </c>
       <c r="H4" s="76"/>
       <c r="I4" s="76"/>
       <c r="J4" s="76"/>
-      <c r="K4" s="58" t="s">
+      <c r="K4" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58" t="s">
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
     </row>
     <row r="5" spans="1:18" ht="27">
-      <c r="A5" s="58"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="29" t="s">
         <v>163</v>
       </c>
@@ -20057,7 +20057,7 @@
       <c r="E5" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="51"/>
+      <c r="F5" s="45"/>
       <c r="G5" s="29" t="s">
         <v>164</v>
       </c>
@@ -20602,10 +20602,10 @@
       <c r="H1" s="77"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="53" t="s">
         <v>143</v>
       </c>
       <c r="C2" s="79" t="s">
@@ -20613,16 +20613,16 @@
       </c>
       <c r="D2" s="80"/>
       <c r="E2" s="81"/>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="58"/>
+      <c r="H2" s="49"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="58"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="78"/>
       <c r="C3" s="28" t="s">
         <v>144</v>
@@ -20834,10 +20834,10 @@
       <c r="H22" s="77"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="53" t="s">
         <v>143</v>
       </c>
       <c r="C23" s="79" t="s">
@@ -20845,16 +20845,16 @@
       </c>
       <c r="D23" s="80"/>
       <c r="E23" s="81"/>
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="58"/>
+      <c r="H23" s="49"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="58"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="78"/>
       <c r="C24" s="28" t="s">
         <v>144</v>
@@ -21055,18 +21055,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21094,47 +21094,47 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="L2" s="58" t="s">
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="L2" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="M2" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58" t="s">
+      <c r="N2" s="49"/>
+      <c r="O2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58" t="s">
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58" t="s">
+      <c r="R2" s="49"/>
+      <c r="S2" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58" t="s">
+      <c r="T2" s="49"/>
+      <c r="U2" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="V2" s="58"/>
+      <c r="V2" s="49"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="58"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="3" t="s">
         <v>124</v>
       </c>
@@ -21159,7 +21159,7 @@
       <c r="I3" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="L3" s="58"/>
+      <c r="L3" s="49"/>
       <c r="M3" s="3" t="s">
         <v>122</v>
       </c>
